--- a/MyPrj/bin/Debug/Content/指标/关联关系.xlsx
+++ b/MyPrj/bin/Debug/Content/指标/关联关系.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="161">
   <si>
     <t>NATURE</t>
   </si>
@@ -33,319 +33,469 @@
     <t>厂级</t>
   </si>
   <si>
-    <t>056a547c-e3c7-4c23-b197-486712ecf5f7</t>
-  </si>
-  <si>
-    <t>8ba45d7a-6773-4275-a339-f0c2584076b6</t>
-  </si>
-  <si>
-    <t>f6cf871a-314a-42a0-92f7-971385e17d3f</t>
+    <t>00051ee4-02b3-4082-8b36-48850e7c5be9</t>
+  </si>
+  <si>
+    <t>15e2f48f-69ad-4a82-a288-bb8a7e3b322a</t>
+  </si>
+  <si>
+    <t>0d7188f7-7ff5-42c5-ad76-5587b096f159</t>
   </si>
   <si>
     <t>a5b5f55f-a3a2-4adb-a4df-44db2b80d1fb</t>
   </si>
   <si>
-    <t>0e008a5b-e938-4640-b9bd-f8a7e475c075</t>
-  </si>
-  <si>
-    <t>4ad08d02-a900-4688-a526-80638d31b0df</t>
+    <t>05ada3da-67d1-4bbc-81d5-c83ec426dbbe</t>
+  </si>
+  <si>
+    <t>1d60e8e8-64d0-4f13-bf7b-7a24102dde66</t>
+  </si>
+  <si>
+    <t>32a7c347-d175-44b4-b148-ed4a1c4a2505</t>
+  </si>
+  <si>
+    <t>0a8cc8eb-1034-47cd-9983-95a74baa6e64</t>
   </si>
   <si>
     <t>38997d03-0296-400f-988f-4f17310c4929</t>
   </si>
   <si>
-    <t>114034ab-7d13-484f-a300-c4a1a618d3c3</t>
-  </si>
-  <si>
-    <t>49f4902b-cb1b-475f-8d50-03936ff25d93</t>
+    <t>0f22d829-e2e5-4295-9bdf-6f95dfd34495</t>
+  </si>
+  <si>
+    <t>8c2c31aa-2d64-4352-9da6-52dcb778bf34</t>
+  </si>
+  <si>
+    <t>0f4cfb2a-a44f-47ba-8263-4e2f764c5b8f</t>
+  </si>
+  <si>
+    <t>2e65c180-6170-42f5-b217-56224b8fb1f1</t>
+  </si>
+  <si>
+    <t>1241df17-c2e3-4dc2-ba31-1ece2a104423</t>
+  </si>
+  <si>
+    <t>559b0ff2-33c5-45ce-8830-b6c6d9286a94</t>
+  </si>
+  <si>
+    <t>143e141e-6e3f-4486-849f-25bcac08869c</t>
+  </si>
+  <si>
+    <t>8b52bde2-df9e-49b3-87fd-c39254ac15b5</t>
+  </si>
+  <si>
+    <t>e7a14eac-6c6b-4f90-8785-e32fa6db0932</t>
+  </si>
+  <si>
+    <t>1440cbb4-d6a8-4f00-a2f8-92437b029e63</t>
+  </si>
+  <si>
+    <t>1d4a2551-d490-429c-b239-dae67b8ca723</t>
+  </si>
+  <si>
+    <t>14a1a970-ee1c-4227-a8e3-68cd0548087d</t>
   </si>
   <si>
     <t>dcd69783-8367-454c-9552-13bc4f460a4d</t>
   </si>
   <si>
-    <t>145a5101-8dab-4c1a-9cae-a6d5fd92f620</t>
-  </si>
-  <si>
-    <t>845c1ba6-c234-4efd-97c3-9be38dc0c82c</t>
-  </si>
-  <si>
-    <t>2053d59f-92a2-4acf-b689-8668ea6d626c</t>
-  </si>
-  <si>
-    <t>0857ea3e-513b-4657-9589-a46479195994</t>
-  </si>
-  <si>
-    <t>23c58546-e8ff-4ec6-87ac-5d155539cbd7</t>
-  </si>
-  <si>
-    <t>2e92caf2-3729-41b3-ae8e-a282447703ac</t>
-  </si>
-  <si>
-    <t>062986ee-d096-4a67-90f4-1791f987aa75</t>
-  </si>
-  <si>
-    <t>2eedfe92-1960-418d-936a-5c76356d4c13</t>
+    <t>153639a0-c14c-4bf4-a7b0-14283f1fffe8</t>
+  </si>
+  <si>
+    <t>68243e16-c319-4170-a027-8e893515ed4f</t>
+  </si>
+  <si>
+    <t>17ab1972-1c63-46ba-b342-dd7038b509c5</t>
+  </si>
+  <si>
+    <t>bd763d60-794b-447e-94cf-5b03056a6726</t>
+  </si>
+  <si>
+    <t>190861f5-2071-4447-9dd0-d0f6d438f712</t>
+  </si>
+  <si>
+    <t>f8b50068-8e89-4311-b25e-abe108c410af</t>
+  </si>
+  <si>
+    <t>c78fda11-cfba-4721-ad72-74c0527cac7d</t>
+  </si>
+  <si>
+    <t>194f1847-a3c5-4ce7-9a40-af755b975100</t>
+  </si>
+  <si>
+    <t>1b12e7d1-ff22-4052-9621-46f46aebcc5e</t>
+  </si>
+  <si>
+    <t>1ecf2e0c-105e-4be7-8897-0f32b3b01c26</t>
+  </si>
+  <si>
+    <t>261d3a18-3753-44cb-9bc2-00fa8d00fa3d</t>
+  </si>
+  <si>
+    <t>1f903500-289f-4b3c-8c6f-f9551644f4d2</t>
+  </si>
+  <si>
+    <t>213ad1e8-6a46-47aa-9e4f-fd265a8088c8</t>
+  </si>
+  <si>
+    <t>1fb67d76-a502-4e9f-9487-51819da09076</t>
+  </si>
+  <si>
+    <t>fe816bb0-6da3-40c9-9248-fedd43125721</t>
+  </si>
+  <si>
+    <t>25673a55-b237-42bc-af3d-0ff29e570119</t>
+  </si>
+  <si>
+    <t>d5505cc4-7572-454a-9465-c35138898482</t>
+  </si>
+  <si>
+    <t>28cca384-eff2-4544-928d-d912a6cdd104</t>
+  </si>
+  <si>
+    <t>c4bed252-9c9a-4cb6-b450-7e0280b2270e</t>
+  </si>
+  <si>
+    <t>28d0fdd6-3a0e-4e7e-a1a5-d1d13efe218a</t>
+  </si>
+  <si>
+    <t>e228231d-a781-4eb0-8fa3-05c60dc86a5d</t>
+  </si>
+  <si>
+    <t>2b7a201e-11c4-4e3e-ba90-22f61f3daf84</t>
+  </si>
+  <si>
+    <t>2c364cc1-4ec6-4267-afa9-ed7c96dfecee</t>
+  </si>
+  <si>
+    <t>74b1ae01-b499-4765-8e33-ba3fc9fbb37b</t>
+  </si>
+  <si>
+    <t>318d7770-f819-4cdc-b1ff-503b4816d310</t>
+  </si>
+  <si>
+    <t>326e8274-2e9a-4e77-9db4-4656f7fa9b57</t>
+  </si>
+  <si>
+    <t>e3b1be33-bbf4-48b1-b166-31c68701e5f9</t>
+  </si>
+  <si>
+    <t>37270d3a-8ffc-4321-8be1-2ff027bbf180</t>
+  </si>
+  <si>
+    <t>44db744b-3997-41d5-a0f4-94aa28fe029d</t>
+  </si>
+  <si>
+    <t>377c26a6-c872-4958-8947-6ba73747b966</t>
+  </si>
+  <si>
+    <t>50b8fb7a-132f-430e-ad25-64b8fc46d9e7</t>
+  </si>
+  <si>
+    <t>3ae611eb-e064-40c8-8a9c-af66316d927e</t>
+  </si>
+  <si>
+    <t>ab930ae0-6180-4318-bc28-0c25bc000224</t>
+  </si>
+  <si>
+    <t>3db20299-e198-4488-b331-4247c64c504a</t>
+  </si>
+  <si>
+    <t>3f41e52b-addb-43b4-a294-c4f941307bdc</t>
+  </si>
+  <si>
+    <t>41cd106a-7f0d-455b-b9dd-0346c59ae11a</t>
+  </si>
+  <si>
+    <t>427c4f16-1737-41eb-af90-db11a78e44c2</t>
+  </si>
+  <si>
+    <t>ac7d9df2-705f-444b-b614-d406553db4b9</t>
+  </si>
+  <si>
+    <t>42cbc91b-46b6-40df-98fe-279b2e8a0fbe</t>
+  </si>
+  <si>
+    <t>db8cdf9f-9cbb-4984-8fd3-ee7ba2b5f485</t>
+  </si>
+  <si>
+    <t>42ce09ed-2609-425f-ac26-fea2c4cce8b3</t>
+  </si>
+  <si>
+    <t>446098e2-2053-4ca8-b1b5-2ae47f463920</t>
+  </si>
+  <si>
+    <t>481c83b1-9518-446b-abe9-e9dff96a30e9</t>
+  </si>
+  <si>
+    <t>36dcada4-994a-48d7-b284-3978497e06b2</t>
+  </si>
+  <si>
+    <t>4b2e125c-a0ed-4be0-994f-3ca051cfab04</t>
+  </si>
+  <si>
+    <t>4ebc3e26-5140-4dcd-8a06-68cac7f7d54b</t>
+  </si>
+  <si>
+    <t>358026bc-040d-4aca-87e4-58809ee764d3</t>
+  </si>
+  <si>
+    <t>51663959-77a8-49ae-b661-c03f570131d8</t>
+  </si>
+  <si>
+    <t>2d4a4e5e-044d-47b5-95ab-64d26822a6ed</t>
+  </si>
+  <si>
+    <t>51dabce0-485d-41bf-a0c7-0d22c52fc831</t>
+  </si>
+  <si>
+    <t>3752ca93-008e-407d-abcc-0369a41b9c71</t>
+  </si>
+  <si>
+    <t>add2fe3c-ca46-41ae-8a17-de849f9cd04d</t>
+  </si>
+  <si>
+    <t>521c6ba4-1fc6-4a30-8130-843e76995428</t>
+  </si>
+  <si>
+    <t>53577244-d257-4d94-8b0b-0f3e5068eaae</t>
+  </si>
+  <si>
+    <t>5e1d5a93-a631-4832-be33-f82791d74383</t>
+  </si>
+  <si>
+    <t>6084fe33-71be-40b6-95b9-15610bce50b8</t>
+  </si>
+  <si>
+    <t>25bbed09-7fd3-44d0-8f51-52c4d4bbc981</t>
+  </si>
+  <si>
+    <t>612d198d-d55e-4136-8f33-f66d1d5b9028</t>
+  </si>
+  <si>
+    <t>c0963a74-0af3-4ba8-affb-583876dbbdc1</t>
+  </si>
+  <si>
+    <t>64a30f07-579c-47ac-a1b7-6c02413d9e8c</t>
+  </si>
+  <si>
+    <t>64a85b97-9104-40d9-bc59-ed5085bc4ca0</t>
+  </si>
+  <si>
+    <t>622096fd-a9fd-4703-a93b-5c6e41d7991a</t>
+  </si>
+  <si>
+    <t>65dd2dca-71c0-4f0d-80f6-74f3e9a140a3</t>
+  </si>
+  <si>
+    <t>2e1fcf64-126e-4862-906b-43985eabd1a8</t>
+  </si>
+  <si>
+    <t>66d2f25b-76b5-4caa-85c9-2c4cc5441cc8</t>
   </si>
   <si>
     <t>1f5eadf8-b577-4d97-b642-ee3f5f0346c3</t>
   </si>
   <si>
-    <t>2fda98bb-1d79-434e-9bca-bd56d6ef6467</t>
-  </si>
-  <si>
-    <t>a3a88882-a607-4bb4-8859-0184d3acba79</t>
-  </si>
-  <si>
-    <t>ab930ae0-6180-4318-bc28-0c25bc000224</t>
-  </si>
-  <si>
-    <t>3deabeb2-11a0-4c09-a72f-7774c995dbb6</t>
-  </si>
-  <si>
-    <t>c78fda11-cfba-4721-ad72-74c0527cac7d</t>
-  </si>
-  <si>
-    <t>414ae6f3-7a2a-4837-8249-48d10531d051</t>
+    <t>693b9dbd-d845-4b1d-8f33-5e1b6d4828ed</t>
+  </si>
+  <si>
+    <t>6a5135ff-fc7d-4b8a-939b-c6730283bb54</t>
+  </si>
+  <si>
+    <t>6a61e52f-d4fe-4c66-bc82-ed4b06d331a2</t>
+  </si>
+  <si>
+    <t>6c558beb-1ac5-4df1-bab2-9ebbea089033</t>
+  </si>
+  <si>
+    <t>6dbfcd42-f0ae-47ca-876d-81f5b7c1acb7</t>
+  </si>
+  <si>
+    <t>6dcf9b87-865b-4256-bb47-7893fdbf95a5</t>
+  </si>
+  <si>
+    <t>6f8bf7dc-b531-4014-884e-bbe3406e7a54</t>
   </si>
   <si>
     <t>6b6714b3-cade-465b-9d8c-48ef8b9e3661</t>
   </si>
   <si>
-    <t>464760b4-98dd-481e-ba3b-fda730a8cfdc</t>
-  </si>
-  <si>
-    <t>961797c7-b0fa-4381-91b2-c27d159a2a0f</t>
-  </si>
-  <si>
-    <t>4892e4b7-f6f2-4e26-8e3a-4e430e133252</t>
-  </si>
-  <si>
-    <t>8ec9be65-dca0-476e-897f-c4f3290b2226</t>
-  </si>
-  <si>
-    <t>5334972c-1bd1-4921-a207-eee432bb486f</t>
-  </si>
-  <si>
-    <t>b83c1ac2-b024-4a1e-a7b2-2a82cd29ea6f</t>
-  </si>
-  <si>
-    <t>5f3b7673-37d9-41cb-af63-0c28f8c317e3</t>
-  </si>
-  <si>
-    <t>2f8622f4-2214-4b77-9f25-78d186ef7e78</t>
-  </si>
-  <si>
-    <t>6d626365-2e5d-49f2-9b92-d9a000019946</t>
-  </si>
-  <si>
-    <t>d93ff549-a88d-466a-97f6-5cdc719f5c5f</t>
-  </si>
-  <si>
-    <t>ac7d9df2-705f-444b-b614-d406553db4b9</t>
-  </si>
-  <si>
-    <t>7808f19c-e17d-4165-b46b-564d7d50e82d</t>
-  </si>
-  <si>
-    <t>dfc9ce4b-6c4e-478b-a49d-4076a6ca43da</t>
-  </si>
-  <si>
-    <t>44db744b-3997-41d5-a0f4-94aa28fe029d</t>
-  </si>
-  <si>
-    <t>8034f970-2030-41de-82b5-2dcf1ebca28e</t>
-  </si>
-  <si>
-    <t>fe816bb0-6da3-40c9-9248-fedd43125721</t>
-  </si>
-  <si>
-    <t>812ceb2c-db40-42d3-802e-6b7eab3722a0</t>
-  </si>
-  <si>
-    <t>74b1ae01-b499-4765-8e33-ba3fc9fbb37b</t>
-  </si>
-  <si>
-    <t>81333a5d-ba38-48bb-94b7-3a911217e703</t>
-  </si>
-  <si>
-    <t>90e9041c-c1c6-46bd-bbe0-d132843b9f5d</t>
-  </si>
-  <si>
-    <t>0d7188f7-7ff5-42c5-ad76-5587b096f159</t>
-  </si>
-  <si>
-    <t>85595033-11f0-404e-bf0c-a691f6ec1638</t>
+    <t>7249131f-9741-48b8-8c85-37e0ccc4532f</t>
+  </si>
+  <si>
+    <t>744ff065-3d74-4d73-a4b0-7d4bd507541e</t>
+  </si>
+  <si>
+    <t>7780b7bb-e114-4c05-bf9d-007e08695586</t>
+  </si>
+  <si>
+    <t>79af9125-2f30-4f0f-ad74-ce9c586513df</t>
+  </si>
+  <si>
+    <t>06c7b258-1164-48cb-ba06-9e64f3447a09</t>
+  </si>
+  <si>
+    <t>7db68525-cdc5-4a55-8682-97bde7ec0d01</t>
+  </si>
+  <si>
+    <t>81581a43-b7d8-49a6-bbc0-29f42e336530</t>
+  </si>
+  <si>
+    <t>816aca41-8675-4ec2-978d-73398025d32f</t>
+  </si>
+  <si>
+    <t>8241e15d-51ee-4ebc-856e-c27d588f8896</t>
+  </si>
+  <si>
+    <t>83448859-9d8e-4ad7-b21d-4a25ea87d3e8</t>
+  </si>
+  <si>
+    <t>8529633a-f844-42f3-a87b-408adb801ba0</t>
+  </si>
+  <si>
+    <t>85a4912e-e5e7-4be6-bced-706e2f2093dc</t>
+  </si>
+  <si>
+    <t>8aaff1de-3205-4303-84d5-4484cc47b1dc</t>
+  </si>
+  <si>
+    <t>8b24ee33-b8af-407e-a37b-7b8609d521a4</t>
+  </si>
+  <si>
+    <t>8d67ee61-1c2f-493c-b911-9bb5420323dd</t>
+  </si>
+  <si>
+    <t>921647fd-8d12-4d8a-b2cd-a088013bf8c2</t>
+  </si>
+  <si>
+    <t>9751b0b0-1a6a-4ce4-beee-421abe8710dd</t>
+  </si>
+  <si>
+    <t>98eb91e4-ec81-4503-bd60-2a3a32f1029c</t>
+  </si>
+  <si>
+    <t>9b17fcd4-c75e-4225-8cda-e8fe23fea57a</t>
+  </si>
+  <si>
+    <t>9dcf72a0-4a39-4123-aa89-b3e5c0b4c75d</t>
+  </si>
+  <si>
+    <t>9f1d47d5-7a8a-430a-abdb-81441d8ead4b</t>
+  </si>
+  <si>
+    <t>eae86ff0-9371-4e12-a3ec-113217bee4dd</t>
+  </si>
+  <si>
+    <t>9f81797f-761a-45f8-95f8-5fd0038513be</t>
+  </si>
+  <si>
+    <t>a030ba77-e260-4f42-bfc3-4b1543f8d83c</t>
+  </si>
+  <si>
+    <t>a1a59a52-b268-46ac-a767-445891a8ef9a</t>
+  </si>
+  <si>
+    <t>a24afe5f-9ed2-4123-ae95-731f272653b2</t>
+  </si>
+  <si>
+    <t>a3fc3e52-426b-4bb5-9457-f2e0eee79df9</t>
+  </si>
+  <si>
+    <t>aa278487-1f74-4e22-9851-3a4dd813d442</t>
+  </si>
+  <si>
+    <t>aca507b0-fdd1-4cbb-920a-ee9b4741b2c2</t>
+  </si>
+  <si>
+    <t>b1721d32-aaad-486a-a67b-2b8fff54ad8e</t>
+  </si>
+  <si>
+    <t>b2789f7b-9d8f-4477-a8be-17ccd61e26b1</t>
+  </si>
+  <si>
+    <t>3b60fda4-9338-4ae6-864d-0e6f448e36ee</t>
   </si>
   <si>
     <t>03eb9018-cb53-4a75-b030-5a7a181899ec</t>
   </si>
   <si>
-    <t>85ca7c77-83ca-463c-9ccb-7bf2bfe2aec6</t>
-  </si>
-  <si>
-    <t>cec1a505-f379-46a4-9ff5-5e031da31981</t>
-  </si>
-  <si>
-    <t>261d3a18-3753-44cb-9bc2-00fa8d00fa3d</t>
-  </si>
-  <si>
-    <t>8919af4b-4c3e-4bd7-b4c8-e4b68ff3109e</t>
-  </si>
-  <si>
-    <t>dc1b84cc-ebd9-499d-83ef-c13ccca44000</t>
-  </si>
-  <si>
-    <t>8b01328b-9c94-4c3a-8e0c-5c1d1151b0f8</t>
-  </si>
-  <si>
-    <t>a5a3baf8-4af5-47b1-a611-b60f5b7316f7</t>
-  </si>
-  <si>
-    <t>8ebc8a43-706c-4fcd-ac67-9498346efc0e</t>
-  </si>
-  <si>
-    <t>2040a81b-5006-47a4-9636-f57cc3ca170a</t>
-  </si>
-  <si>
-    <t>9cb768ed-b8ee-4b85-9e25-68eec3d60f51</t>
-  </si>
-  <si>
-    <t>9085ac61-78ad-4139-9000-d3e7a35190de</t>
-  </si>
-  <si>
-    <t>9cbc14ec-009f-4f50-8414-c2ad1c4a15cb</t>
-  </si>
-  <si>
-    <t>4d2599e7-77f6-440c-8c9d-8c1bba83c335</t>
-  </si>
-  <si>
-    <t>a6c294e1-d392-4b37-9f72-89f26d287945</t>
-  </si>
-  <si>
-    <t>5d9daa12-32c3-4018-a413-0d84e9d04125</t>
-  </si>
-  <si>
-    <t>a70b7d81-1118-4721-ada2-5b42806526cf</t>
-  </si>
-  <si>
-    <t>4dc4a95c-9f99-41d0-8640-7314103fc7a8</t>
-  </si>
-  <si>
-    <t>b502a327-37c0-4b29-9452-eea7857fd522</t>
-  </si>
-  <si>
-    <t>9c0a956e-cdd8-45a2-b35b-264767c1f5d0</t>
-  </si>
-  <si>
-    <t>b8290a63-42de-4e9e-afae-527e2f88e8b2</t>
-  </si>
-  <si>
-    <t>622096fd-a9fd-4703-a93b-5c6e41d7991a</t>
-  </si>
-  <si>
-    <t>b849cda4-df64-4bb5-ac2f-6ab61733fc5d</t>
-  </si>
-  <si>
-    <t>1fcf5604-1b7e-4275-a4af-20ee8606cb90</t>
-  </si>
-  <si>
-    <t>ba13d1e0-62fa-4624-a9f7-dba1f9a142c7</t>
-  </si>
-  <si>
-    <t>cbed88d9-0c8d-48e6-a7b5-8ca6dbd3b80b</t>
-  </si>
-  <si>
-    <t>bc469d13-21a6-4c81-a7d5-08862eed1d47</t>
-  </si>
-  <si>
-    <t>50b8fb7a-132f-430e-ad25-64b8fc46d9e7</t>
-  </si>
-  <si>
-    <t>bcd05ceb-f6f9-4e09-88c7-400b03635d6a</t>
-  </si>
-  <si>
-    <t>36dcada4-994a-48d7-b284-3978497e06b2</t>
-  </si>
-  <si>
-    <t>bdf766e2-7252-427b-87ff-aa6031419f88</t>
-  </si>
-  <si>
-    <t>0ea30377-652f-4d1a-9cec-0ab8b62bf2a1</t>
-  </si>
-  <si>
-    <t>c22168e0-5a76-4352-ac1e-4d901715ab08</t>
-  </si>
-  <si>
-    <t>2e65c180-6170-42f5-b217-56224b8fb1f1</t>
-  </si>
-  <si>
-    <t>cb10c1c7-3a44-4ee3-a090-46d2ea50a538</t>
-  </si>
-  <si>
-    <t>16fe4e9c-96fb-4d14-8a25-037505a0385f</t>
-  </si>
-  <si>
-    <t>cd3a1b98-8b0e-46c7-bffd-2f7843506016</t>
-  </si>
-  <si>
-    <t>a0e0d2d9-4793-444a-a089-893365cc0ea2</t>
-  </si>
-  <si>
-    <t>eae86ff0-9371-4e12-a3ec-113217bee4dd</t>
-  </si>
-  <si>
-    <t>d3b2cba4-6144-4cbd-ba36-3a25ceaf394e</t>
-  </si>
-  <si>
-    <t>25bbed09-7fd3-44d0-8f51-52c4d4bbc981</t>
-  </si>
-  <si>
-    <t>dc0ee295-e497-4701-a3d0-1423e99f67da</t>
-  </si>
-  <si>
-    <t>c38415aa-8f7d-402e-ba1e-05999d6eb4e9</t>
-  </si>
-  <si>
-    <t>e2f19853-05a5-487e-a4b9-9f73b114a70b</t>
-  </si>
-  <si>
-    <t>3539d08c-fbe9-4356-a81d-4e5ad30b872b</t>
-  </si>
-  <si>
-    <t>e5ae1f85-d5e6-450a-bb2d-415a77c76a79</t>
-  </si>
-  <si>
-    <t>1d4a2551-d490-429c-b239-dae67b8ca723</t>
-  </si>
-  <si>
-    <t>e990c217-9840-4891-9248-1d3c31e807ec</t>
-  </si>
-  <si>
-    <t>d5505cc4-7572-454a-9465-c35138898482</t>
-  </si>
-  <si>
-    <t>eacc5cb9-79cc-4625-aa7c-1a246089c491</t>
-  </si>
-  <si>
-    <t>890e636a-5b73-410a-b88c-e01f69d13b9c</t>
-  </si>
-  <si>
-    <t>ec0f143f-08d2-446a-83b0-1abbe140a2f4</t>
-  </si>
-  <si>
-    <t>9306e1ff-cce8-44a8-80b2-6bbcd7120eb0</t>
-  </si>
-  <si>
-    <t>f3fb1bc2-e0b9-46aa-a413-4be66152f24c</t>
-  </si>
-  <si>
-    <t>c4bed252-9c9a-4cb6-b450-7e0280b2270e</t>
-  </si>
-  <si>
-    <t>f5f0c390-4744-465e-8328-7844b8d9aedf</t>
-  </si>
-  <si>
-    <t>68243e16-c319-4170-a027-8e893515ed4f</t>
+    <t>b2d4c1b9-2ba4-4c4c-9a13-13779e775967</t>
+  </si>
+  <si>
+    <t>c15d132e-a23f-4057-b6e1-b45e1a0000ba</t>
+  </si>
+  <si>
+    <t>c17ad9a7-4ec9-4cb9-a484-a45ece5af06a</t>
+  </si>
+  <si>
+    <t>c32c2e7a-60a7-4805-9649-857d5df865dd</t>
+  </si>
+  <si>
+    <t>c3671211-77aa-46ed-93e7-8584da0be422</t>
+  </si>
+  <si>
+    <t>cb950454-26aa-4187-b40e-d2ac29539664</t>
+  </si>
+  <si>
+    <t>cba4fa6f-0ba7-437a-88a2-eb6ab56629d5</t>
+  </si>
+  <si>
+    <t>cbd300ed-5d9c-40f2-8545-30a9a5726ae3</t>
+  </si>
+  <si>
+    <t>d09e02fa-1b0c-44c4-ade2-f8e1d6c217cf</t>
+  </si>
+  <si>
+    <t>d1531acf-4549-4a6d-b79e-a3f964d236c4</t>
+  </si>
+  <si>
+    <t>d1e9eee3-6c5a-4c33-92d2-789ecd90a2fc</t>
+  </si>
+  <si>
+    <t>d3d52306-aea8-4bd3-8071-3da8542ac8d1</t>
+  </si>
+  <si>
+    <t>dfb5b303-6575-4e25-98c5-aed604d6ac8d</t>
+  </si>
+  <si>
+    <t>e40bb1c4-574b-40e6-b5d4-3daaa570ff06</t>
+  </si>
+  <si>
+    <t>e555988d-0b6b-48d4-870c-c1e3a6fe59f2</t>
+  </si>
+  <si>
+    <t>e788addc-51f1-4fe1-a060-0072562825b1</t>
+  </si>
+  <si>
+    <t>ee0c9c3f-2f66-433c-bbf0-56a2b76e5ff9</t>
+  </si>
+  <si>
+    <t>ee43afd6-a8a0-4e46-b2c0-784492e78f3e</t>
+  </si>
+  <si>
+    <t>eff83c3f-bf27-4930-a300-4a75dea87e07</t>
+  </si>
+  <si>
+    <t>f02ba388-3ec0-478c-8e94-2e79e9e8490b</t>
+  </si>
+  <si>
+    <t>f0c4f5d3-6202-4fc5-aced-cde9e35c0bf3</t>
+  </si>
+  <si>
+    <t>f0e82dd6-a9f8-4e07-83d5-74ed846006d0</t>
+  </si>
+  <si>
+    <t>f1e1fc97-e3ef-428e-942d-be8e0ce973bb</t>
+  </si>
+  <si>
+    <t>f7465517-6f73-41ba-8ea1-9c147ca7287b</t>
+  </si>
+  <si>
+    <t>fa87989e-9ddf-47ee-8494-67bedf414f34</t>
+  </si>
+  <si>
+    <t>ff27f62e-30d0-4790-ba3d-95e601c97672</t>
   </si>
 </sst>
 </file>
@@ -389,7 +539,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E48"/>
+  <dimension ref="A1:E110"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -451,10 +601,10 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
         <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
@@ -465,13 +615,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
         <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
@@ -482,13 +632,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
         <v>18</v>
-      </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
       </c>
       <c r="E6" t="s">
         <v>9</v>
@@ -499,13 +649,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7" t="s">
         <v>9</v>
@@ -516,13 +666,13 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
         <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" t="s">
-        <v>24</v>
       </c>
       <c r="E8" t="s">
         <v>9</v>
@@ -533,13 +683,13 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
         <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>27</v>
       </c>
       <c r="E9" t="s">
         <v>9</v>
@@ -550,13 +700,13 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E10" t="s">
         <v>9</v>
@@ -567,13 +717,13 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E11" t="s">
         <v>9</v>
@@ -584,13 +734,13 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="D12" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E12" t="s">
         <v>9</v>
@@ -601,13 +751,13 @@
         <v>5</v>
       </c>
       <c r="B13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" t="s">
         <v>34</v>
-      </c>
-      <c r="C13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" t="s">
-        <v>35</v>
       </c>
       <c r="E13" t="s">
         <v>9</v>
@@ -618,13 +768,13 @@
         <v>5</v>
       </c>
       <c r="B14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" t="s">
         <v>36</v>
-      </c>
-      <c r="C14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" t="s">
-        <v>37</v>
       </c>
       <c r="E14" t="s">
         <v>9</v>
@@ -635,13 +785,13 @@
         <v>5</v>
       </c>
       <c r="B15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" t="s">
         <v>38</v>
-      </c>
-      <c r="C15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" t="s">
-        <v>39</v>
       </c>
       <c r="E15" t="s">
         <v>9</v>
@@ -652,13 +802,13 @@
         <v>5</v>
       </c>
       <c r="B16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" t="s">
         <v>40</v>
-      </c>
-      <c r="C16" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" t="s">
-        <v>42</v>
       </c>
       <c r="E16" t="s">
         <v>9</v>
@@ -669,13 +819,13 @@
         <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C17" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="D17" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E17" t="s">
         <v>9</v>
@@ -686,13 +836,13 @@
         <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C18" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="D18" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E18" t="s">
         <v>9</v>
@@ -703,13 +853,13 @@
         <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C19" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D19" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E19" t="s">
         <v>9</v>
@@ -720,13 +870,13 @@
         <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C20" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D20" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="E20" t="s">
         <v>9</v>
@@ -737,13 +887,13 @@
         <v>5</v>
       </c>
       <c r="B21" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C21" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="E21" t="s">
         <v>9</v>
@@ -754,13 +904,13 @@
         <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C22" t="s">
-        <v>56</v>
+        <v>7</v>
       </c>
       <c r="D22" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E22" t="s">
         <v>9</v>
@@ -771,13 +921,13 @@
         <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C23" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="D23" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="E23" t="s">
         <v>9</v>
@@ -788,13 +938,13 @@
         <v>5</v>
       </c>
       <c r="B24" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C24" t="s">
         <v>7</v>
       </c>
       <c r="D24" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E24" t="s">
         <v>9</v>
@@ -805,13 +955,13 @@
         <v>5</v>
       </c>
       <c r="B25" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C25" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D25" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="E25" t="s">
         <v>9</v>
@@ -822,13 +972,13 @@
         <v>5</v>
       </c>
       <c r="B26" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C26" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D26" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="E26" t="s">
         <v>9</v>
@@ -839,13 +989,13 @@
         <v>5</v>
       </c>
       <c r="B27" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C27" t="s">
         <v>7</v>
       </c>
       <c r="D27" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E27" t="s">
         <v>9</v>
@@ -856,13 +1006,13 @@
         <v>5</v>
       </c>
       <c r="B28" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C28" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D28" t="s">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="E28" t="s">
         <v>9</v>
@@ -873,13 +1023,13 @@
         <v>5</v>
       </c>
       <c r="B29" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C29" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D29" t="s">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="E29" t="s">
         <v>9</v>
@@ -890,13 +1040,13 @@
         <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="C30" t="s">
         <v>7</v>
       </c>
       <c r="D30" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="E30" t="s">
         <v>9</v>
@@ -907,13 +1057,13 @@
         <v>5</v>
       </c>
       <c r="B31" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C31" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D31" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="E31" t="s">
         <v>9</v>
@@ -924,13 +1074,13 @@
         <v>5</v>
       </c>
       <c r="B32" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C32" t="s">
         <v>7</v>
       </c>
       <c r="D32" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="E32" t="s">
         <v>9</v>
@@ -941,13 +1091,13 @@
         <v>5</v>
       </c>
       <c r="B33" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C33" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D33" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="E33" t="s">
         <v>9</v>
@@ -958,13 +1108,13 @@
         <v>5</v>
       </c>
       <c r="B34" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="C34" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="D34" t="s">
-        <v>81</v>
+        <v>27</v>
       </c>
       <c r="E34" t="s">
         <v>9</v>
@@ -975,13 +1125,13 @@
         <v>5</v>
       </c>
       <c r="B35" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="C35" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="D35" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="E35" t="s">
         <v>9</v>
@@ -992,13 +1142,13 @@
         <v>5</v>
       </c>
       <c r="B36" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="C36" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D36" t="s">
-        <v>85</v>
+        <v>36</v>
       </c>
       <c r="E36" t="s">
         <v>9</v>
@@ -1009,13 +1159,13 @@
         <v>5</v>
       </c>
       <c r="B37" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="C37" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D37" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="E37" t="s">
         <v>9</v>
@@ -1026,13 +1176,13 @@
         <v>5</v>
       </c>
       <c r="B38" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="C38" t="s">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="D38" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="E38" t="s">
         <v>9</v>
@@ -1043,13 +1193,13 @@
         <v>5</v>
       </c>
       <c r="B39" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="C39" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D39" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="E39" t="s">
         <v>9</v>
@@ -1060,13 +1210,13 @@
         <v>5</v>
       </c>
       <c r="B40" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="C40" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D40" t="s">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="E40" t="s">
         <v>9</v>
@@ -1077,13 +1227,13 @@
         <v>5</v>
       </c>
       <c r="B41" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="C41" t="s">
         <v>7</v>
       </c>
       <c r="D41" t="s">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="E41" t="s">
         <v>9</v>
@@ -1094,13 +1244,13 @@
         <v>5</v>
       </c>
       <c r="B42" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="C42" t="s">
         <v>7</v>
       </c>
       <c r="D42" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="E42" t="s">
         <v>9</v>
@@ -1111,13 +1261,13 @@
         <v>5</v>
       </c>
       <c r="B43" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="C43" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="D43" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="E43" t="s">
         <v>9</v>
@@ -1128,13 +1278,13 @@
         <v>5</v>
       </c>
       <c r="B44" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="C44" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D44" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="E44" t="s">
         <v>9</v>
@@ -1145,13 +1295,13 @@
         <v>5</v>
       </c>
       <c r="B45" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="C45" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D45" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="E45" t="s">
         <v>9</v>
@@ -1162,13 +1312,13 @@
         <v>5</v>
       </c>
       <c r="B46" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="C46" t="s">
         <v>7</v>
       </c>
       <c r="D46" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="E46" t="s">
         <v>9</v>
@@ -1179,13 +1329,13 @@
         <v>5</v>
       </c>
       <c r="B47" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="C47" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="D47" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="E47" t="s">
         <v>9</v>
@@ -1196,15 +1346,1069 @@
         <v>5</v>
       </c>
       <c r="B48" t="s">
+        <v>92</v>
+      </c>
+      <c r="C48" t="s">
+        <v>7</v>
+      </c>
+      <c r="D48" t="s">
+        <v>93</v>
+      </c>
+      <c r="E48" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B49" t="s">
+        <v>94</v>
+      </c>
+      <c r="C49" t="s">
+        <v>22</v>
+      </c>
+      <c r="D49" t="s">
+        <v>51</v>
+      </c>
+      <c r="E49" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>5</v>
+      </c>
+      <c r="B50" t="s">
+        <v>95</v>
+      </c>
+      <c r="C50" t="s">
+        <v>22</v>
+      </c>
+      <c r="D50" t="s">
+        <v>34</v>
+      </c>
+      <c r="E50" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>5</v>
+      </c>
+      <c r="B51" t="s">
+        <v>96</v>
+      </c>
+      <c r="C51" t="s">
+        <v>7</v>
+      </c>
+      <c r="D51" t="s">
+        <v>23</v>
+      </c>
+      <c r="E51" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>5</v>
+      </c>
+      <c r="B52" t="s">
+        <v>97</v>
+      </c>
+      <c r="C52" t="s">
+        <v>31</v>
+      </c>
+      <c r="D52" t="s">
+        <v>54</v>
+      </c>
+      <c r="E52" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>5</v>
+      </c>
+      <c r="B53" t="s">
+        <v>98</v>
+      </c>
+      <c r="C53" t="s">
+        <v>22</v>
+      </c>
+      <c r="D53" t="s">
+        <v>67</v>
+      </c>
+      <c r="E53" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>5</v>
+      </c>
+      <c r="B54" t="s">
+        <v>99</v>
+      </c>
+      <c r="C54" t="s">
+        <v>11</v>
+      </c>
+      <c r="D54" t="s">
+        <v>71</v>
+      </c>
+      <c r="E54" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>5</v>
+      </c>
+      <c r="B55" t="s">
+        <v>100</v>
+      </c>
+      <c r="C55" t="s">
+        <v>22</v>
+      </c>
+      <c r="D55" t="s">
+        <v>101</v>
+      </c>
+      <c r="E55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>5</v>
+      </c>
+      <c r="B56" t="s">
+        <v>102</v>
+      </c>
+      <c r="C56" t="s">
+        <v>78</v>
+      </c>
+      <c r="D56" t="s">
+        <v>29</v>
+      </c>
+      <c r="E56" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>5</v>
+      </c>
+      <c r="B57" t="s">
+        <v>103</v>
+      </c>
+      <c r="C57" t="s">
+        <v>7</v>
+      </c>
+      <c r="D57" t="s">
+        <v>38</v>
+      </c>
+      <c r="E57" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B58" t="s">
+        <v>104</v>
+      </c>
+      <c r="C58" t="s">
+        <v>11</v>
+      </c>
+      <c r="D58" t="s">
+        <v>74</v>
+      </c>
+      <c r="E58" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>5</v>
+      </c>
+      <c r="B59" t="s">
+        <v>105</v>
+      </c>
+      <c r="C59" t="s">
+        <v>22</v>
+      </c>
+      <c r="D59" t="s">
+        <v>106</v>
+      </c>
+      <c r="E59" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>5</v>
+      </c>
+      <c r="B60" t="s">
+        <v>107</v>
+      </c>
+      <c r="C60" t="s">
+        <v>7</v>
+      </c>
+      <c r="D60" t="s">
+        <v>46</v>
+      </c>
+      <c r="E60" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>5</v>
+      </c>
+      <c r="B61" t="s">
+        <v>108</v>
+      </c>
+      <c r="C61" t="s">
+        <v>22</v>
+      </c>
+      <c r="D61" t="s">
+        <v>93</v>
+      </c>
+      <c r="E61" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>5</v>
+      </c>
+      <c r="B62" t="s">
         <v>109</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C62" t="s">
+        <v>48</v>
+      </c>
+      <c r="D62" t="s">
+        <v>8</v>
+      </c>
+      <c r="E62" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>5</v>
+      </c>
+      <c r="B63" t="s">
+        <v>110</v>
+      </c>
+      <c r="C63" t="s">
+        <v>48</v>
+      </c>
+      <c r="D63" t="s">
+        <v>38</v>
+      </c>
+      <c r="E63" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>5</v>
+      </c>
+      <c r="B64" t="s">
+        <v>111</v>
+      </c>
+      <c r="C64" t="s">
+        <v>7</v>
+      </c>
+      <c r="D64" t="s">
+        <v>20</v>
+      </c>
+      <c r="E64" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>5</v>
+      </c>
+      <c r="B65" t="s">
+        <v>112</v>
+      </c>
+      <c r="C65" t="s">
+        <v>22</v>
+      </c>
+      <c r="D65" t="s">
+        <v>89</v>
+      </c>
+      <c r="E65" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>5</v>
+      </c>
+      <c r="B66" t="s">
+        <v>113</v>
+      </c>
+      <c r="C66" t="s">
+        <v>22</v>
+      </c>
+      <c r="D66" t="s">
+        <v>12</v>
+      </c>
+      <c r="E66" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>5</v>
+      </c>
+      <c r="B67" t="s">
+        <v>114</v>
+      </c>
+      <c r="C67" t="s">
+        <v>48</v>
+      </c>
+      <c r="D67" t="s">
+        <v>25</v>
+      </c>
+      <c r="E67" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>5</v>
+      </c>
+      <c r="B68" t="s">
+        <v>115</v>
+      </c>
+      <c r="C68" t="s">
+        <v>7</v>
+      </c>
+      <c r="D68" t="s">
+        <v>101</v>
+      </c>
+      <c r="E68" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>5</v>
+      </c>
+      <c r="B69" t="s">
+        <v>116</v>
+      </c>
+      <c r="C69" t="s">
+        <v>78</v>
+      </c>
+      <c r="D69" t="s">
+        <v>101</v>
+      </c>
+      <c r="E69" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>5</v>
+      </c>
+      <c r="B70" t="s">
+        <v>117</v>
+      </c>
+      <c r="C70" t="s">
+        <v>78</v>
+      </c>
+      <c r="D70" t="s">
+        <v>16</v>
+      </c>
+      <c r="E70" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>5</v>
+      </c>
+      <c r="B71" t="s">
+        <v>118</v>
+      </c>
+      <c r="C71" t="s">
+        <v>22</v>
+      </c>
+      <c r="D71" t="s">
+        <v>8</v>
+      </c>
+      <c r="E71" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>5</v>
+      </c>
+      <c r="B72" t="s">
+        <v>119</v>
+      </c>
+      <c r="C72" t="s">
+        <v>22</v>
+      </c>
+      <c r="D72" t="s">
+        <v>91</v>
+      </c>
+      <c r="E72" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>5</v>
+      </c>
+      <c r="B73" t="s">
+        <v>120</v>
+      </c>
+      <c r="C73" t="s">
+        <v>7</v>
+      </c>
+      <c r="D73" t="s">
+        <v>18</v>
+      </c>
+      <c r="E73" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>5</v>
+      </c>
+      <c r="B74" t="s">
+        <v>121</v>
+      </c>
+      <c r="C74" t="s">
+        <v>22</v>
+      </c>
+      <c r="D74" t="s">
+        <v>20</v>
+      </c>
+      <c r="E74" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>5</v>
+      </c>
+      <c r="B75" t="s">
+        <v>122</v>
+      </c>
+      <c r="C75" t="s">
+        <v>22</v>
+      </c>
+      <c r="D75" t="s">
+        <v>123</v>
+      </c>
+      <c r="E75" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>5</v>
+      </c>
+      <c r="B76" t="s">
+        <v>124</v>
+      </c>
+      <c r="C76" t="s">
+        <v>78</v>
+      </c>
+      <c r="D76" t="s">
+        <v>60</v>
+      </c>
+      <c r="E76" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>5</v>
+      </c>
+      <c r="B77" t="s">
+        <v>125</v>
+      </c>
+      <c r="C77" t="s">
+        <v>7</v>
+      </c>
+      <c r="D77" t="s">
+        <v>86</v>
+      </c>
+      <c r="E77" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>5</v>
+      </c>
+      <c r="B78" t="s">
+        <v>126</v>
+      </c>
+      <c r="C78" t="s">
+        <v>78</v>
+      </c>
+      <c r="D78" t="s">
+        <v>51</v>
+      </c>
+      <c r="E78" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>5</v>
+      </c>
+      <c r="B79" t="s">
+        <v>127</v>
+      </c>
+      <c r="C79" t="s">
+        <v>22</v>
+      </c>
+      <c r="D79" t="s">
+        <v>71</v>
+      </c>
+      <c r="E79" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>5</v>
+      </c>
+      <c r="B80" t="s">
+        <v>128</v>
+      </c>
+      <c r="C80" t="s">
+        <v>7</v>
+      </c>
+      <c r="D80" t="s">
+        <v>12</v>
+      </c>
+      <c r="E80" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>5</v>
+      </c>
+      <c r="B81" t="s">
+        <v>129</v>
+      </c>
+      <c r="C81" t="s">
+        <v>78</v>
+      </c>
+      <c r="D81" t="s">
+        <v>65</v>
+      </c>
+      <c r="E81" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>5</v>
+      </c>
+      <c r="B82" t="s">
+        <v>130</v>
+      </c>
+      <c r="C82" t="s">
+        <v>31</v>
+      </c>
+      <c r="D82" t="s">
+        <v>67</v>
+      </c>
+      <c r="E82" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" t="s">
+        <v>131</v>
+      </c>
+      <c r="C83" t="s">
+        <v>7</v>
+      </c>
+      <c r="D83" t="s">
+        <v>65</v>
+      </c>
+      <c r="E83" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" t="s">
+        <v>132</v>
+      </c>
+      <c r="C84" t="s">
+        <v>133</v>
+      </c>
+      <c r="D84" t="s">
+        <v>134</v>
+      </c>
+      <c r="E84" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" t="s">
+        <v>135</v>
+      </c>
+      <c r="C85" t="s">
+        <v>7</v>
+      </c>
+      <c r="D85" t="s">
+        <v>25</v>
+      </c>
+      <c r="E85" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" t="s">
+        <v>136</v>
+      </c>
+      <c r="C86" t="s">
+        <v>22</v>
+      </c>
+      <c r="D86" t="s">
+        <v>29</v>
+      </c>
+      <c r="E86" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" t="s">
+        <v>137</v>
+      </c>
+      <c r="C87" t="s">
+        <v>31</v>
+      </c>
+      <c r="D87" t="s">
+        <v>42</v>
+      </c>
+      <c r="E87" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88" t="s">
+        <v>138</v>
+      </c>
+      <c r="C88" t="s">
+        <v>22</v>
+      </c>
+      <c r="D88" t="s">
+        <v>58</v>
+      </c>
+      <c r="E88" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" t="s">
+        <v>139</v>
+      </c>
+      <c r="C89" t="s">
+        <v>22</v>
+      </c>
+      <c r="D89" t="s">
+        <v>79</v>
+      </c>
+      <c r="E89" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" t="s">
+        <v>140</v>
+      </c>
+      <c r="C90" t="s">
+        <v>7</v>
+      </c>
+      <c r="D90" t="s">
+        <v>123</v>
+      </c>
+      <c r="E90" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>5</v>
+      </c>
+      <c r="B91" t="s">
+        <v>141</v>
+      </c>
+      <c r="C91" t="s">
+        <v>7</v>
+      </c>
+      <c r="D91" t="s">
+        <v>91</v>
+      </c>
+      <c r="E91" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" t="s">
+        <v>142</v>
+      </c>
+      <c r="C92" t="s">
+        <v>31</v>
+      </c>
+      <c r="D92" t="s">
+        <v>23</v>
+      </c>
+      <c r="E92" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93" t="s">
+        <v>143</v>
+      </c>
+      <c r="C93" t="s">
+        <v>78</v>
+      </c>
+      <c r="D93" t="s">
+        <v>89</v>
+      </c>
+      <c r="E93" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" t="s">
+        <v>144</v>
+      </c>
+      <c r="C94" t="s">
+        <v>48</v>
+      </c>
+      <c r="D94" t="s">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95" t="s">
+        <v>145</v>
+      </c>
+      <c r="C95" t="s">
+        <v>7</v>
+      </c>
+      <c r="D95" t="s">
+        <v>76</v>
+      </c>
+      <c r="E95" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>5</v>
+      </c>
+      <c r="B96" t="s">
+        <v>146</v>
+      </c>
+      <c r="C96" t="s">
+        <v>7</v>
+      </c>
+      <c r="D96" t="s">
+        <v>84</v>
+      </c>
+      <c r="E96" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>5</v>
+      </c>
+      <c r="B97" t="s">
+        <v>147</v>
+      </c>
+      <c r="C97" t="s">
+        <v>7</v>
+      </c>
+      <c r="D97" t="s">
+        <v>106</v>
+      </c>
+      <c r="E97" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98" t="s">
+        <v>148</v>
+      </c>
+      <c r="C98" t="s">
+        <v>22</v>
+      </c>
+      <c r="D98" t="s">
+        <v>84</v>
+      </c>
+      <c r="E98" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>5</v>
+      </c>
+      <c r="B99" t="s">
+        <v>149</v>
+      </c>
+      <c r="C99" t="s">
+        <v>31</v>
+      </c>
+      <c r="D99" t="s">
+        <v>123</v>
+      </c>
+      <c r="E99" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B100" t="s">
+        <v>150</v>
+      </c>
+      <c r="C100" t="s">
+        <v>22</v>
+      </c>
+      <c r="D100" t="s">
+        <v>46</v>
+      </c>
+      <c r="E100" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B101" t="s">
+        <v>151</v>
+      </c>
+      <c r="C101" t="s">
+        <v>22</v>
+      </c>
+      <c r="D101" t="s">
+        <v>16</v>
+      </c>
+      <c r="E101" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102" t="s">
+        <v>152</v>
+      </c>
+      <c r="C102" t="s">
+        <v>22</v>
+      </c>
+      <c r="D102" t="s">
+        <v>44</v>
+      </c>
+      <c r="E102" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103" t="s">
+        <v>153</v>
+      </c>
+      <c r="C103" t="s">
+        <v>22</v>
+      </c>
+      <c r="D103" t="s">
+        <v>60</v>
+      </c>
+      <c r="E103" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B104" t="s">
+        <v>154</v>
+      </c>
+      <c r="C104" t="s">
+        <v>48</v>
+      </c>
+      <c r="D104" t="s">
+        <v>106</v>
+      </c>
+      <c r="E104" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>5</v>
+      </c>
+      <c r="B105" t="s">
+        <v>155</v>
+      </c>
+      <c r="C105" t="s">
+        <v>78</v>
+      </c>
+      <c r="D105" t="s">
+        <v>86</v>
+      </c>
+      <c r="E105" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>5</v>
+      </c>
+      <c r="B106" t="s">
+        <v>156</v>
+      </c>
+      <c r="C106" t="s">
+        <v>7</v>
+      </c>
+      <c r="D106" t="s">
         <v>56</v>
       </c>
-      <c r="D48" t="s">
-        <v>110</v>
-      </c>
-      <c r="E48" t="s">
+      <c r="E106" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>5</v>
+      </c>
+      <c r="B107" t="s">
+        <v>157</v>
+      </c>
+      <c r="C107" t="s">
+        <v>22</v>
+      </c>
+      <c r="D107" t="s">
+        <v>56</v>
+      </c>
+      <c r="E107" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>5</v>
+      </c>
+      <c r="B108" t="s">
+        <v>158</v>
+      </c>
+      <c r="C108" t="s">
+        <v>22</v>
+      </c>
+      <c r="D108" t="s">
+        <v>76</v>
+      </c>
+      <c r="E108" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>5</v>
+      </c>
+      <c r="B109" t="s">
+        <v>159</v>
+      </c>
+      <c r="C109" t="s">
+        <v>7</v>
+      </c>
+      <c r="D109" t="s">
+        <v>44</v>
+      </c>
+      <c r="E109" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>5</v>
+      </c>
+      <c r="B110" t="s">
+        <v>160</v>
+      </c>
+      <c r="C110" t="s">
+        <v>7</v>
+      </c>
+      <c r="D110" t="s">
+        <v>40</v>
+      </c>
+      <c r="E110" t="s">
         <v>9</v>
       </c>
     </row>
